--- a/target/test-classes/com/ii/qa/excel/New Microsoft Excel Worksheet.xlsx
+++ b/target/test-classes/com/ii/qa/excel/New Microsoft Excel Worksheet.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka\Documents\Automation new (06-12-2202)\com.ii.qa\src\test\java\com\ii\qa\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QDMS\Automation_TH\src\test\java\com\ii\qa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E137A-B971-4F42-8F6C-E3E9C9FFC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="3270" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="AddSCategory" sheetId="4" r:id="rId3"/>
+    <sheet name="EditSCategory" sheetId="5" r:id="rId4"/>
+    <sheet name="AddSupplier" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>admin@gmail.com</t>
   </si>
@@ -39,13 +40,85 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>tokyo@admin</t>
+  </si>
+  <si>
+    <t>pppp</t>
+  </si>
+  <si>
+    <t>qqqq</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>jjjj</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Supplier Category</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Cement Supplier</t>
+  </si>
+  <si>
+    <t>RMC Jaffna Plant</t>
+  </si>
+  <si>
+    <t>jaffna</t>
+  </si>
+  <si>
+    <t>Kabil</t>
+  </si>
+  <si>
+    <t>kabil@gmail.com</t>
+  </si>
+  <si>
+    <t>0770852364</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +134,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +184,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,21 +474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +493,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,41 +507,198 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D7566EFE-870F-488C-8D60-4E23F2628552}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{C532FE01-FC78-4F6B-A6EB-6358CC8CEAE4}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{8AB1377D-7B35-40A5-905C-6D2C3C77D09D}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{DD64CF8F-E8E4-4B3D-93C4-76DB43504DC1}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="C1" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6F3D0-1A86-49DE-B255-680BBF276C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5F2D-6B54-46E2-92B9-8289E9ED5124}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="19.140625" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/target/test-classes/com/ii/qa/excel/New Microsoft Excel Worksheet.xlsx
+++ b/target/test-classes/com/ii/qa/excel/New Microsoft Excel Worksheet.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyanka\Documents\Automation new (06-12-2202)\com.ii.qa\src\test\java\com\ii\qa\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QDMS-GITHUB\Automation_TH\src\test\java\com\ii\qa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E137A-B971-4F42-8F6C-E3E9C9FFC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="2445" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Add_Equipment" sheetId="7" r:id="rId2"/>
+    <sheet name="Edit_Equipment" sheetId="8" r:id="rId3"/>
+    <sheet name="SBU" sheetId="2" r:id="rId4"/>
+    <sheet name="Sbu_EditPage" sheetId="3" r:id="rId5"/>
+    <sheet name="Delivery" sheetId="4" r:id="rId6"/>
+    <sheet name="Delivery_Edit" sheetId="5" r:id="rId7"/>
+    <sheet name="Add_SupplierSupplier" sheetId="6" r:id="rId8"/>
+    <sheet name="Edit_SupplierSupplier" sheetId="9" r:id="rId9"/>
+    <sheet name="Add_Employee" sheetId="10" r:id="rId10"/>
+    <sheet name="MMCButton" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,25 +34,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>http://transport-hub-qa-release.com.s3-website.ap-south-1.amazonaws.com/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>admin</t>
   </si>
+  <si>
+    <t>tokyo@admin</t>
+  </si>
+  <si>
+    <t>PlantTwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantTwoTesting </t>
+  </si>
+  <si>
+    <t>PlantTwoEdit</t>
+  </si>
+  <si>
+    <t>PlantoneTwoEditTesting</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Projectv8</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>My Testing purpose1</t>
+  </si>
+  <si>
+    <t>Kabil_Project01</t>
+  </si>
+  <si>
+    <t>KabilTesting</t>
+  </si>
+  <si>
+    <t>Kabil to be tested</t>
+  </si>
+  <si>
+    <t>Edit Delivery</t>
+  </si>
+  <si>
+    <t>Edit Testing</t>
+  </si>
+  <si>
+    <t>Road Project</t>
+  </si>
+  <si>
+    <t>AddTNEquipment</t>
+  </si>
+  <si>
+    <t>AddTNDescription</t>
+  </si>
+  <si>
+    <t>TEST_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>EditTNEquipment</t>
+  </si>
+  <si>
+    <t>EditTNDescription</t>
+  </si>
+  <si>
+    <t>PRODUCTION_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Tsupplier</t>
+  </si>
+  <si>
+    <t>ABZ</t>
+  </si>
+  <si>
+    <t>tharmini9220@gmail.com</t>
+  </si>
+  <si>
+    <t>0772536481</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Irupalai</t>
+  </si>
+  <si>
+    <t>Test plan</t>
+  </si>
+  <si>
+    <t>Inpam</t>
+  </si>
+  <si>
+    <t>Lingam</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>0779658963</t>
+  </si>
+  <si>
+    <t>minishu2028@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">margin-left: </t>
+  </si>
+  <si>
+    <t>-10px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background: </t>
+  </si>
+  <si>
+    <t>rgb(0, 19, 40);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color: </t>
+  </si>
+  <si>
+    <t>white;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border: </t>
+  </si>
+  <si>
+    <t>none;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">width: </t>
+  </si>
+  <si>
+    <t>auto;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +193,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE8EAED"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +240,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,61 +546,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{D7566EFE-870F-488C-8D60-4E23F2628552}"/>
-    <hyperlink ref="C1" r:id="rId2" xr:uid="{C532FE01-FC78-4F6B-A6EB-6358CC8CEAE4}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{8AB1377D-7B35-40A5-905C-6D2C3C77D09D}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{DD64CF8F-E8E4-4B3D-93C4-76DB43504DC1}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C6F3D0-1A86-49DE-B255-680BBF276C98}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236E5F2D-6B54-46E2-92B9-8289E9ED5124}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>